--- a/data/pca/factorExposure/factorExposure_2016-09-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.007473152944912711</v>
+        <v>-0.01292100773395555</v>
       </c>
       <c r="C2">
-        <v>0.05380090944653786</v>
+        <v>0.04413990270907968</v>
       </c>
       <c r="D2">
-        <v>-0.03443606512880868</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06648855502392925</v>
+      </c>
+      <c r="E2">
+        <v>-0.05161761242164474</v>
+      </c>
+      <c r="F2">
+        <v>0.08397536176139915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.06157290919313728</v>
+        <v>-0.03173444767101919</v>
       </c>
       <c r="C3">
-        <v>0.09253079351011514</v>
+        <v>0.0806152850124976</v>
       </c>
       <c r="D3">
-        <v>-0.08080979835926544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09355581786262944</v>
+      </c>
+      <c r="E3">
+        <v>-0.0609296880140331</v>
+      </c>
+      <c r="F3">
+        <v>0.01433316576804078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06188635527998983</v>
+        <v>-0.05749542083514887</v>
       </c>
       <c r="C4">
-        <v>0.05994962478719344</v>
+        <v>0.06648001122482645</v>
       </c>
       <c r="D4">
-        <v>-0.02654092747308429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06109937159309161</v>
+      </c>
+      <c r="E4">
+        <v>-0.05073543609083095</v>
+      </c>
+      <c r="F4">
+        <v>0.08795170870948339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03434991790403101</v>
+        <v>-0.03350258836382439</v>
       </c>
       <c r="C6">
-        <v>0.03773029732255608</v>
+        <v>0.03453855539339401</v>
       </c>
       <c r="D6">
-        <v>-0.0308783574242456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06876256141763884</v>
+      </c>
+      <c r="E6">
+        <v>-0.05858140571977392</v>
+      </c>
+      <c r="F6">
+        <v>0.07324803080511538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01834833549934593</v>
+        <v>-0.01918785830117464</v>
       </c>
       <c r="C7">
-        <v>0.03823200375905561</v>
+        <v>0.03745669838142894</v>
       </c>
       <c r="D7">
-        <v>0.002971894662982563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03831202344192337</v>
+      </c>
+      <c r="E7">
+        <v>-0.03190966381900463</v>
+      </c>
+      <c r="F7">
+        <v>0.1096556656173296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.00129695412140925</v>
+        <v>-0.003670333954944952</v>
       </c>
       <c r="C8">
-        <v>0.02289488636709198</v>
+        <v>0.02814432556122887</v>
       </c>
       <c r="D8">
-        <v>-0.03281350197588231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03671182578328142</v>
+      </c>
+      <c r="E8">
+        <v>-0.04125395000559578</v>
+      </c>
+      <c r="F8">
+        <v>0.05108811759494024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03204329881590745</v>
+        <v>-0.03656791851187117</v>
       </c>
       <c r="C9">
-        <v>0.04343077207319501</v>
+        <v>0.05236633357472144</v>
       </c>
       <c r="D9">
-        <v>-0.01437874718403981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04657515572035748</v>
+      </c>
+      <c r="E9">
+        <v>-0.0438059443746554</v>
+      </c>
+      <c r="F9">
+        <v>0.0931006303955655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07340050728782636</v>
+        <v>-0.1006922941115038</v>
       </c>
       <c r="C10">
-        <v>-0.1930940544307474</v>
+        <v>-0.1929609115735858</v>
       </c>
       <c r="D10">
-        <v>-0.005221046651645834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-6.614651862208668e-05</v>
+      </c>
+      <c r="E10">
+        <v>-0.04607262343008451</v>
+      </c>
+      <c r="F10">
+        <v>0.03997059041334096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03663485519645394</v>
+        <v>-0.03548369308490854</v>
       </c>
       <c r="C11">
-        <v>0.05554598220902824</v>
+        <v>0.05137460515512161</v>
       </c>
       <c r="D11">
-        <v>-0.006714584188605213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03447850782934354</v>
+      </c>
+      <c r="E11">
+        <v>-0.004903238274612627</v>
+      </c>
+      <c r="F11">
+        <v>0.06612265849796338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03371081226093271</v>
+        <v>-0.03628143056964257</v>
       </c>
       <c r="C12">
-        <v>0.04771370597517097</v>
+        <v>0.04777129618134396</v>
       </c>
       <c r="D12">
-        <v>-0.002941684385390921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02613159680004752</v>
+      </c>
+      <c r="E12">
+        <v>-0.0143224894031452</v>
+      </c>
+      <c r="F12">
+        <v>0.06932461856711969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0112655541767574</v>
+        <v>-0.01136429605952633</v>
       </c>
       <c r="C13">
-        <v>0.04112143777356932</v>
+        <v>0.04094705511711235</v>
       </c>
       <c r="D13">
-        <v>-0.01895426470221473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06448688656454812</v>
+      </c>
+      <c r="E13">
+        <v>-0.06146300808701997</v>
+      </c>
+      <c r="F13">
+        <v>0.1149515777407015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006070066937486222</v>
+        <v>-0.005533443612915208</v>
       </c>
       <c r="C14">
-        <v>0.03162410318732155</v>
+        <v>0.02997845308833412</v>
       </c>
       <c r="D14">
-        <v>0.01460876710715848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02948764742333588</v>
+      </c>
+      <c r="E14">
+        <v>-0.02722723318125362</v>
+      </c>
+      <c r="F14">
+        <v>0.09979209639711081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001353252946386713</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003190803557221729</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003999925180459398</v>
+      </c>
+      <c r="E15">
+        <v>-0.0002471524750054256</v>
+      </c>
+      <c r="F15">
+        <v>0.002593318832414632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0331628878718559</v>
+        <v>-0.0330405536974368</v>
       </c>
       <c r="C16">
-        <v>0.04362139496111928</v>
+        <v>0.04574279499846583</v>
       </c>
       <c r="D16">
-        <v>-0.007764105652090241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02931781172601229</v>
+      </c>
+      <c r="E16">
+        <v>-0.01960732453448585</v>
+      </c>
+      <c r="F16">
+        <v>0.07044318303762181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02367690948547251</v>
+        <v>-0.01639165014770732</v>
       </c>
       <c r="C19">
-        <v>0.06018158819269759</v>
+        <v>0.04991724079179685</v>
       </c>
       <c r="D19">
-        <v>-0.07307325548147738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0996962412632578</v>
+      </c>
+      <c r="E19">
+        <v>-0.07995059185234964</v>
+      </c>
+      <c r="F19">
+        <v>0.09418501893575143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0133453774852834</v>
+        <v>-0.01318854423630172</v>
       </c>
       <c r="C20">
-        <v>0.04320116035079125</v>
+        <v>0.04088043166065525</v>
       </c>
       <c r="D20">
-        <v>-0.01944904832270427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04234462630921743</v>
+      </c>
+      <c r="E20">
+        <v>-0.05670924342748798</v>
+      </c>
+      <c r="F20">
+        <v>0.09042818455092863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.007337232229552852</v>
+        <v>-0.007772108572429375</v>
       </c>
       <c r="C21">
-        <v>0.0466696033566486</v>
+        <v>0.04444885144525343</v>
       </c>
       <c r="D21">
-        <v>-0.03596302752193074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07032191341440805</v>
+      </c>
+      <c r="E21">
+        <v>-0.07420794122545735</v>
+      </c>
+      <c r="F21">
+        <v>0.1344877740965885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.000781386885231561</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02302687677738497</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03451618925697861</v>
+      </c>
+      <c r="E22">
+        <v>-0.01752340460408054</v>
+      </c>
+      <c r="F22">
+        <v>0.0203830004603426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0008479545732413837</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02315284869752645</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03420348971971462</v>
+      </c>
+      <c r="E23">
+        <v>-0.01781581046041028</v>
+      </c>
+      <c r="F23">
+        <v>0.02025126025139486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02798207062611648</v>
+        <v>-0.03244488039995246</v>
       </c>
       <c r="C24">
-        <v>0.04905008987382402</v>
+        <v>0.05364843111865223</v>
       </c>
       <c r="D24">
-        <v>-0.003620386595882879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02753471074799848</v>
+      </c>
+      <c r="E24">
+        <v>-0.01698513891075012</v>
+      </c>
+      <c r="F24">
+        <v>0.07904568869716742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04181005537003265</v>
+        <v>-0.04222239885952728</v>
       </c>
       <c r="C25">
-        <v>0.06054043779947111</v>
+        <v>0.05774332219613592</v>
       </c>
       <c r="D25">
-        <v>0.005909047450158483</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02503548108972366</v>
+      </c>
+      <c r="E25">
+        <v>-0.01167848126543036</v>
+      </c>
+      <c r="F25">
+        <v>0.08011830603785298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01140982672549399</v>
+        <v>-0.01362751614422823</v>
       </c>
       <c r="C26">
-        <v>0.01479062453617007</v>
+        <v>0.01640823078139335</v>
       </c>
       <c r="D26">
-        <v>-0.001853851067797556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.027013104100519</v>
+      </c>
+      <c r="E26">
+        <v>-0.02907882293771893</v>
+      </c>
+      <c r="F26">
+        <v>0.07599737173072177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.0875190755869235</v>
+        <v>-0.1357032924302514</v>
       </c>
       <c r="C28">
-        <v>-0.2255174810889004</v>
+        <v>-0.2421711864130908</v>
       </c>
       <c r="D28">
-        <v>-0.001802674587455462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01492809134909419</v>
+      </c>
+      <c r="E28">
+        <v>-0.04824396600800163</v>
+      </c>
+      <c r="F28">
+        <v>0.05515737121224253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.007927421979410028</v>
+        <v>-0.006445298912420003</v>
       </c>
       <c r="C29">
-        <v>0.02520100023310262</v>
+        <v>0.02581847997694799</v>
       </c>
       <c r="D29">
-        <v>0.01487136335103638</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02353648799930509</v>
+      </c>
+      <c r="E29">
+        <v>-0.02945543265772739</v>
+      </c>
+      <c r="F29">
+        <v>0.09194589071010978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05046009359710447</v>
+        <v>-0.04079990219969397</v>
       </c>
       <c r="C30">
-        <v>0.05719661286211838</v>
+        <v>0.06468605965848651</v>
       </c>
       <c r="D30">
-        <v>-0.05117175999256567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1083313564517205</v>
+      </c>
+      <c r="E30">
+        <v>-0.03988392945260372</v>
+      </c>
+      <c r="F30">
+        <v>0.1043104485830382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04858024484788572</v>
+        <v>-0.05452640471679493</v>
       </c>
       <c r="C31">
-        <v>0.03458905059645231</v>
+        <v>0.05421096884510417</v>
       </c>
       <c r="D31">
-        <v>0.01151757963748817</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.007247709413402113</v>
+      </c>
+      <c r="E31">
+        <v>-0.04872272461037318</v>
+      </c>
+      <c r="F31">
+        <v>0.08285383542366066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008955848273163572</v>
+        <v>-0.004241298231494793</v>
       </c>
       <c r="C32">
-        <v>0.04416483830153466</v>
+        <v>0.03345084531804242</v>
       </c>
       <c r="D32">
-        <v>-0.02377984642347691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05054672152928432</v>
+      </c>
+      <c r="E32">
+        <v>-0.02261201371775204</v>
+      </c>
+      <c r="F32">
+        <v>0.07452920600750698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02639572950473009</v>
+        <v>-0.02414591361012344</v>
       </c>
       <c r="C33">
-        <v>0.05839218308578911</v>
+        <v>0.05441477968697038</v>
       </c>
       <c r="D33">
-        <v>-0.03349727220464611</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08291415051424729</v>
+      </c>
+      <c r="E33">
+        <v>-0.05022987124120231</v>
+      </c>
+      <c r="F33">
+        <v>0.1303616387498389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.043479059309745</v>
+        <v>-0.04054947635034967</v>
       </c>
       <c r="C34">
-        <v>0.06131434746340143</v>
+        <v>0.06366663649484645</v>
       </c>
       <c r="D34">
-        <v>0.00268300710129833</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03484762185522059</v>
+      </c>
+      <c r="E34">
+        <v>0.006971198888714446</v>
+      </c>
+      <c r="F34">
+        <v>0.07575929433808584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008019537410997708</v>
+        <v>-0.01331373075794656</v>
       </c>
       <c r="C36">
-        <v>0.01349098047475642</v>
+        <v>0.01228462790862603</v>
       </c>
       <c r="D36">
-        <v>-0.001780632560839674</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02926452124314356</v>
+      </c>
+      <c r="E36">
+        <v>-0.03534855559833171</v>
+      </c>
+      <c r="F36">
+        <v>0.08239714774318026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02983638256381025</v>
+        <v>-0.02474216649855343</v>
       </c>
       <c r="C38">
-        <v>0.02901429285352311</v>
+        <v>0.02522636387012282</v>
       </c>
       <c r="D38">
-        <v>-0.002131092179412046</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02742559859134851</v>
+      </c>
+      <c r="E38">
+        <v>-0.03470346394733137</v>
+      </c>
+      <c r="F38">
+        <v>0.06920215089457574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.039196307077887</v>
+        <v>-0.03822610520767557</v>
       </c>
       <c r="C39">
-        <v>0.0722833896838042</v>
+        <v>0.06852049640675069</v>
       </c>
       <c r="D39">
-        <v>-0.02040557620231079</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05340327527186991</v>
+      </c>
+      <c r="E39">
+        <v>-0.01831757399175514</v>
+      </c>
+      <c r="F39">
+        <v>0.09185859835010517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01635987850606596</v>
+        <v>-0.01597819566814744</v>
       </c>
       <c r="C40">
-        <v>0.03529818697633873</v>
+        <v>0.04000552070344612</v>
       </c>
       <c r="D40">
-        <v>-0.03433617063371933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04087940646897799</v>
+      </c>
+      <c r="E40">
+        <v>-0.07245331665527527</v>
+      </c>
+      <c r="F40">
+        <v>0.08994953352821511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008681955726969622</v>
+        <v>-0.01775193105414287</v>
       </c>
       <c r="C41">
-        <v>0.007901259207060835</v>
+        <v>0.006185518639975925</v>
       </c>
       <c r="D41">
-        <v>-0.001413847876649601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01806323993659889</v>
+      </c>
+      <c r="E41">
+        <v>-0.03826723489939465</v>
+      </c>
+      <c r="F41">
+        <v>0.07117271208098977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.002380053625527201</v>
+        <v>-0.001558281386737998</v>
       </c>
       <c r="C42">
-        <v>0.004357650549471943</v>
+        <v>0.002411312890982523</v>
       </c>
       <c r="D42">
-        <v>-0.009238367301023157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.00172187218730933</v>
+      </c>
+      <c r="E42">
+        <v>-0.00821174455674881</v>
+      </c>
+      <c r="F42">
+        <v>-0.006034911614133292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0318284476258648</v>
+        <v>-0.0290687860972695</v>
       </c>
       <c r="C43">
-        <v>0.02327571969421643</v>
+        <v>0.02119117410132722</v>
       </c>
       <c r="D43">
-        <v>-0.01313682917974665</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04175017497117278</v>
+      </c>
+      <c r="E43">
+        <v>-0.0437988306002906</v>
+      </c>
+      <c r="F43">
+        <v>0.08514203874301945</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01519507212585226</v>
+        <v>-0.01392480305124091</v>
       </c>
       <c r="C44">
-        <v>0.05699215923845065</v>
+        <v>0.05212518288650599</v>
       </c>
       <c r="D44">
-        <v>-0.01720343599095783</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04115178827873649</v>
+      </c>
+      <c r="E44">
+        <v>-0.05686655165093457</v>
+      </c>
+      <c r="F44">
+        <v>0.08984306061589098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>2.060997856908445e-06</v>
+        <v>-0.007613403303330026</v>
       </c>
       <c r="C46">
-        <v>0.02338963697106793</v>
+        <v>0.02530199397605841</v>
       </c>
       <c r="D46">
-        <v>0.01939053735272234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01450414761254681</v>
+      </c>
+      <c r="E46">
+        <v>-0.0355155866664936</v>
+      </c>
+      <c r="F46">
+        <v>0.1052229734507922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07955445947388592</v>
+        <v>-0.08575894146787977</v>
       </c>
       <c r="C47">
-        <v>0.07248226989902448</v>
+        <v>0.08048873961701715</v>
       </c>
       <c r="D47">
-        <v>0.007323834974805686</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01619336743272227</v>
+      </c>
+      <c r="E47">
+        <v>-0.05453077263124009</v>
+      </c>
+      <c r="F47">
+        <v>0.07825619373707059</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01706491362519462</v>
+        <v>-0.0157925154422725</v>
       </c>
       <c r="C48">
-        <v>0.01174790650748174</v>
+        <v>0.01768092998843811</v>
       </c>
       <c r="D48">
-        <v>0.00642192595379139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01996577078450366</v>
+      </c>
+      <c r="E48">
+        <v>-0.04585508407117005</v>
+      </c>
+      <c r="F48">
+        <v>0.09770406286949262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08483764984576588</v>
+        <v>-0.07222880067210065</v>
       </c>
       <c r="C50">
-        <v>0.07057903292324642</v>
+        <v>0.07074494407679037</v>
       </c>
       <c r="D50">
-        <v>0.01846377601690932</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.004803040838776463</v>
+      </c>
+      <c r="E50">
+        <v>-0.05198732104048713</v>
+      </c>
+      <c r="F50">
+        <v>0.07023637308197635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01036417232812424</v>
+        <v>-0.01020361824983287</v>
       </c>
       <c r="C51">
-        <v>0.04530710786149109</v>
+        <v>0.03386545302186655</v>
       </c>
       <c r="D51">
-        <v>-0.007230478094339053</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04990626375933668</v>
+      </c>
+      <c r="E51">
+        <v>-0.021450542828567</v>
+      </c>
+      <c r="F51">
+        <v>0.08580861895650539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.0813431364045836</v>
+        <v>-0.09217874421119041</v>
       </c>
       <c r="C53">
-        <v>0.07421806187014959</v>
+        <v>0.08796886371830896</v>
       </c>
       <c r="D53">
-        <v>0.02535798701277418</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03789186445355452</v>
+      </c>
+      <c r="E53">
+        <v>-0.05391897521843578</v>
+      </c>
+      <c r="F53">
+        <v>0.08771011584446059</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03112286616308036</v>
+        <v>-0.02752678564534595</v>
       </c>
       <c r="C54">
-        <v>0.02178709648717426</v>
+        <v>0.026965089690785</v>
       </c>
       <c r="D54">
-        <v>-0.001618306901602375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03297319340781753</v>
+      </c>
+      <c r="E54">
+        <v>-0.03994598498849602</v>
+      </c>
+      <c r="F54">
+        <v>0.09711363581106289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07121772717557075</v>
+        <v>-0.08328725168642184</v>
       </c>
       <c r="C55">
-        <v>0.0653730650495605</v>
+        <v>0.07185920462767299</v>
       </c>
       <c r="D55">
-        <v>0.0287854973569528</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04492962281232452</v>
+      </c>
+      <c r="E55">
+        <v>-0.0447966691890041</v>
+      </c>
+      <c r="F55">
+        <v>0.06493941069476007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1473911245556581</v>
+        <v>-0.1448619388351696</v>
       </c>
       <c r="C56">
-        <v>0.0936175775360477</v>
+        <v>0.1063887041288013</v>
       </c>
       <c r="D56">
-        <v>0.0323090778509792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0478462669231088</v>
+      </c>
+      <c r="E56">
+        <v>-0.04859469815278728</v>
+      </c>
+      <c r="F56">
+        <v>0.0492351794465623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.0008879411347539753</v>
+        <v>-0.0002204815117108581</v>
       </c>
       <c r="C57">
-        <v>0.003104774502938423</v>
+        <v>0.00177878294775707</v>
       </c>
       <c r="D57">
-        <v>-0.01806099723547828</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01585118914396781</v>
+      </c>
+      <c r="E57">
+        <v>-0.006907332272316666</v>
+      </c>
+      <c r="F57">
+        <v>0.009756969445361285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07435323261461738</v>
+        <v>-0.0291013094006584</v>
       </c>
       <c r="C58">
-        <v>0.01961963901838618</v>
+        <v>0.04024321568586532</v>
       </c>
       <c r="D58">
-        <v>-0.9361861111412957</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4963897285864547</v>
+      </c>
+      <c r="E58">
+        <v>-0.6780632459618402</v>
+      </c>
+      <c r="F58">
+        <v>-0.4635381225368179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1360529608251069</v>
+        <v>-0.1478701356909795</v>
       </c>
       <c r="C59">
-        <v>-0.205193471513664</v>
+        <v>-0.1863902229190732</v>
       </c>
       <c r="D59">
-        <v>-0.01390387742501599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03233324794582131</v>
+      </c>
+      <c r="E59">
+        <v>-0.02555210824692989</v>
+      </c>
+      <c r="F59">
+        <v>0.02160339630919744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3151182132034276</v>
+        <v>-0.2825990345033442</v>
       </c>
       <c r="C60">
-        <v>0.09292898190764287</v>
+        <v>0.09835856997939639</v>
       </c>
       <c r="D60">
-        <v>-0.006337874708870048</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1998751317865888</v>
+      </c>
+      <c r="E60">
+        <v>0.2779074643057208</v>
+      </c>
+      <c r="F60">
+        <v>-0.1097889203592346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03690671748462288</v>
+        <v>-0.04011000538819167</v>
       </c>
       <c r="C61">
-        <v>0.06512237955652517</v>
+        <v>0.06267830621419694</v>
       </c>
       <c r="D61">
-        <v>-0.01130055316616216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04748105070793369</v>
+      </c>
+      <c r="E61">
+        <v>-0.0221201712352057</v>
+      </c>
+      <c r="F61">
+        <v>0.08332008824411925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01379463991018598</v>
+        <v>-0.01489685152432224</v>
       </c>
       <c r="C63">
-        <v>0.0355131724033487</v>
+        <v>0.03263389240016617</v>
       </c>
       <c r="D63">
-        <v>-4.913893025751186e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02424478239897742</v>
+      </c>
+      <c r="E63">
+        <v>-0.03842312366790614</v>
+      </c>
+      <c r="F63">
+        <v>0.07726494005236717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.04991692832254046</v>
+        <v>-0.05500320340511027</v>
       </c>
       <c r="C64">
-        <v>0.03572576848711544</v>
+        <v>0.05393884750257567</v>
       </c>
       <c r="D64">
-        <v>0.008856575229805092</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.007760297543929573</v>
+      </c>
+      <c r="E64">
+        <v>-0.02117865760732338</v>
+      </c>
+      <c r="F64">
+        <v>0.08588765184168122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09460368554954675</v>
+        <v>-0.06679777852227325</v>
       </c>
       <c r="C65">
-        <v>0.03881620608509215</v>
+        <v>0.03788071631061203</v>
       </c>
       <c r="D65">
-        <v>-0.03993901122111823</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08697553613314125</v>
+      </c>
+      <c r="E65">
+        <v>-0.0320700332078129</v>
+      </c>
+      <c r="F65">
+        <v>0.02311651954613361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.05912852938527173</v>
+        <v>-0.05029117978345777</v>
       </c>
       <c r="C66">
-        <v>0.1049282397040277</v>
+        <v>0.09143284748125267</v>
       </c>
       <c r="D66">
-        <v>-0.03218689799503009</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08013949798621578</v>
+      </c>
+      <c r="E66">
+        <v>-0.01987870118574914</v>
+      </c>
+      <c r="F66">
+        <v>0.09246447407510305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.052624763145069</v>
+        <v>-0.04717988347718991</v>
       </c>
       <c r="C67">
-        <v>0.03376051886642812</v>
+        <v>0.03075703992518469</v>
       </c>
       <c r="D67">
-        <v>0.003962914811890315</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01351224136741862</v>
+      </c>
+      <c r="E67">
+        <v>-0.01801955503673774</v>
+      </c>
+      <c r="F67">
+        <v>0.05418673948843017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.116285010272324</v>
+        <v>-0.1532164748307333</v>
       </c>
       <c r="C68">
-        <v>-0.288789242075219</v>
+        <v>-0.2513698340202471</v>
       </c>
       <c r="D68">
-        <v>0.003537906351235295</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01644832806082087</v>
+      </c>
+      <c r="E68">
+        <v>-0.04285586295327266</v>
+      </c>
+      <c r="F68">
+        <v>0.01965929693283384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08285270932604294</v>
+        <v>-0.08631307239350636</v>
       </c>
       <c r="C69">
-        <v>0.06900196872230253</v>
+        <v>0.08671522926315128</v>
       </c>
       <c r="D69">
-        <v>0.03310391068779054</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01037780512464952</v>
+      </c>
+      <c r="E69">
+        <v>-0.0316725938177848</v>
+      </c>
+      <c r="F69">
+        <v>0.09718713101715452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1183557721888325</v>
+        <v>-0.1449448488540258</v>
       </c>
       <c r="C71">
-        <v>-0.2492502237825302</v>
+        <v>-0.2320639404541983</v>
       </c>
       <c r="D71">
-        <v>-0.0227934102702603</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01630213528112607</v>
+      </c>
+      <c r="E71">
+        <v>-0.06038005882937689</v>
+      </c>
+      <c r="F71">
+        <v>0.05529665448853119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08496822690067918</v>
+        <v>-0.09542535606465008</v>
       </c>
       <c r="C72">
-        <v>0.04955089563244659</v>
+        <v>0.05730133256667934</v>
       </c>
       <c r="D72">
-        <v>0.01155062137218004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01947952282262673</v>
+      </c>
+      <c r="E72">
+        <v>-0.009633629222411068</v>
+      </c>
+      <c r="F72">
+        <v>0.08108896993131687</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4403124660204368</v>
+        <v>-0.3464833105309096</v>
       </c>
       <c r="C73">
-        <v>0.06343453873401132</v>
+        <v>0.07930801988768764</v>
       </c>
       <c r="D73">
-        <v>-0.08278733328989879</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4256683971055933</v>
+      </c>
+      <c r="E73">
+        <v>0.4919246018042269</v>
+      </c>
+      <c r="F73">
+        <v>-0.2899519206647742</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1107947785022591</v>
+        <v>-0.1101069446266995</v>
       </c>
       <c r="C74">
-        <v>0.109420962002012</v>
+        <v>0.101536300114098</v>
       </c>
       <c r="D74">
-        <v>0.005545642367368838</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0284682931268702</v>
+      </c>
+      <c r="E74">
+        <v>-0.06324129466427507</v>
+      </c>
+      <c r="F74">
+        <v>0.0546620679946635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2488089162383827</v>
+        <v>-0.2554435034074443</v>
       </c>
       <c r="C75">
-        <v>0.1219344211206137</v>
+        <v>0.1388376717484819</v>
       </c>
       <c r="D75">
-        <v>0.04745965442489834</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1278060963326438</v>
+      </c>
+      <c r="E75">
+        <v>-0.07582512045089783</v>
+      </c>
+      <c r="F75">
+        <v>0.01318412953100786</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.110673345559997</v>
+        <v>-0.1277777309673662</v>
       </c>
       <c r="C76">
-        <v>0.09549461790648174</v>
+        <v>0.1049592751598082</v>
       </c>
       <c r="D76">
-        <v>0.0251696143545585</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05802524828517589</v>
+      </c>
+      <c r="E76">
+        <v>-0.06818744716689254</v>
+      </c>
+      <c r="F76">
+        <v>0.06731628969485251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07582504306268081</v>
+        <v>-0.0613916412464816</v>
       </c>
       <c r="C77">
-        <v>0.05764403738219132</v>
+        <v>0.07011856907530627</v>
       </c>
       <c r="D77">
-        <v>-0.05050328246920421</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06551278906544752</v>
+      </c>
+      <c r="E77">
+        <v>-0.06519682980519899</v>
+      </c>
+      <c r="F77">
+        <v>0.1158297455116567</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04549546575038893</v>
+        <v>-0.04379751230121787</v>
       </c>
       <c r="C78">
-        <v>0.04366612808800977</v>
+        <v>0.05465570392970828</v>
       </c>
       <c r="D78">
-        <v>-0.01702002860035563</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07418022226309096</v>
+      </c>
+      <c r="E78">
+        <v>-0.0226129587677325</v>
+      </c>
+      <c r="F78">
+        <v>0.1068634003221979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02364755457010047</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03881321518731445</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0601663764177711</v>
+      </c>
+      <c r="E79">
+        <v>-0.05177018905463029</v>
+      </c>
+      <c r="F79">
+        <v>0.03677621252065163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04480971374076212</v>
+        <v>-0.03431992487280162</v>
       </c>
       <c r="C80">
-        <v>0.05568211726223743</v>
+        <v>0.05492803914909173</v>
       </c>
       <c r="D80">
-        <v>-0.02634644257240625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04771782748175178</v>
+      </c>
+      <c r="E80">
+        <v>-0.008732876944280373</v>
+      </c>
+      <c r="F80">
+        <v>0.03349257866572215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1410063943679687</v>
+        <v>-0.1395817569278065</v>
       </c>
       <c r="C81">
-        <v>0.07669746901676472</v>
+        <v>0.09830362936322988</v>
       </c>
       <c r="D81">
-        <v>0.02253558590432677</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09388311264650651</v>
+      </c>
+      <c r="E81">
+        <v>-0.08223064945203536</v>
+      </c>
+      <c r="F81">
+        <v>0.01904559564451066</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1291641553911528</v>
+        <v>-0.1965385837972893</v>
       </c>
       <c r="C82">
-        <v>0.06140814478515019</v>
+        <v>0.1389504218124098</v>
       </c>
       <c r="D82">
-        <v>0.1169187673062202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2266472522362259</v>
+      </c>
+      <c r="E82">
+        <v>-0.01998084151668732</v>
+      </c>
+      <c r="F82">
+        <v>0.08264764716673237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0302028400764693</v>
+        <v>-0.02679558933007399</v>
       </c>
       <c r="C83">
-        <v>0.01977816730832809</v>
+        <v>0.04046524125877186</v>
       </c>
       <c r="D83">
-        <v>-0.01574359670923603</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03519980407810583</v>
+      </c>
+      <c r="E83">
+        <v>-0.007807185160354141</v>
+      </c>
+      <c r="F83">
+        <v>0.04817495819716255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2265631576107555</v>
+        <v>-0.2036116076355465</v>
       </c>
       <c r="C85">
-        <v>0.1108550905157472</v>
+        <v>0.1236759784087227</v>
       </c>
       <c r="D85">
-        <v>0.09098244126568771</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1040280893375829</v>
+      </c>
+      <c r="E85">
+        <v>-0.005466622162547446</v>
+      </c>
+      <c r="F85">
+        <v>-0.02400223581311021</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.003399005029378682</v>
+        <v>-0.01180016835553175</v>
       </c>
       <c r="C86">
-        <v>0.02508425119226293</v>
+        <v>0.03034877179387296</v>
       </c>
       <c r="D86">
-        <v>-0.02727712989183719</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07223976236182456</v>
+      </c>
+      <c r="E86">
+        <v>-0.04275399401878342</v>
+      </c>
+      <c r="F86">
+        <v>0.1393912581337525</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01781468178741001</v>
+        <v>-0.02012334448197282</v>
       </c>
       <c r="C87">
-        <v>0.01613753346708347</v>
+        <v>0.02201504553504898</v>
       </c>
       <c r="D87">
-        <v>-0.09096243738889746</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09337360723449305</v>
+      </c>
+      <c r="E87">
+        <v>-0.08578346628536442</v>
+      </c>
+      <c r="F87">
+        <v>0.09347683703539943</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1017427289675791</v>
+        <v>-0.09044981308047396</v>
       </c>
       <c r="C88">
-        <v>0.07086844031642596</v>
+        <v>0.06341589227549707</v>
       </c>
       <c r="D88">
-        <v>0.01544423194938455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01141329021259295</v>
+      </c>
+      <c r="E88">
+        <v>-0.03300276155036163</v>
+      </c>
+      <c r="F88">
+        <v>0.0690225464070815</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1842056911471238</v>
+        <v>-0.226120613399806</v>
       </c>
       <c r="C89">
-        <v>-0.3720089971437611</v>
+        <v>-0.3772781586924864</v>
       </c>
       <c r="D89">
-        <v>0.0272712317732075</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01410916012902308</v>
+      </c>
+      <c r="E89">
+        <v>-0.03972516153646285</v>
+      </c>
+      <c r="F89">
+        <v>0.09900196752755629</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1748440423031257</v>
+        <v>-0.2045156838652896</v>
       </c>
       <c r="C90">
-        <v>-0.3463981741539566</v>
+        <v>-0.3139275017848512</v>
       </c>
       <c r="D90">
-        <v>0.01112627011958468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01081550256839499</v>
+      </c>
+      <c r="E90">
+        <v>-0.066943147474816</v>
+      </c>
+      <c r="F90">
+        <v>0.04922971325258553</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1968065266459883</v>
+        <v>-0.1880114675056845</v>
       </c>
       <c r="C91">
-        <v>0.1158045791001229</v>
+        <v>0.1411380255918947</v>
       </c>
       <c r="D91">
-        <v>0.04755359099761879</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1022924958793358</v>
+      </c>
+      <c r="E91">
+        <v>-0.07112796208432756</v>
+      </c>
+      <c r="F91">
+        <v>0.03719598822113373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1689175127119203</v>
+        <v>-0.1839142294357534</v>
       </c>
       <c r="C92">
-        <v>-0.2915329323472917</v>
+        <v>-0.2793210935907561</v>
       </c>
       <c r="D92">
-        <v>0.01408246061874631</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003294290347956219</v>
+      </c>
+      <c r="E92">
+        <v>-0.07118356787697516</v>
+      </c>
+      <c r="F92">
+        <v>0.07417510391792009</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2032557642976365</v>
+        <v>-0.2287836111421763</v>
       </c>
       <c r="C93">
-        <v>-0.3353534515987693</v>
+        <v>-0.3186304626986337</v>
       </c>
       <c r="D93">
-        <v>0.004697148247054366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001686279891087439</v>
+      </c>
+      <c r="E93">
+        <v>-0.05139249921459235</v>
+      </c>
+      <c r="F93">
+        <v>0.04568394497904302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3180474615955051</v>
+        <v>-0.3408502957634365</v>
       </c>
       <c r="C94">
-        <v>0.1704367103774141</v>
+        <v>0.1900856291970558</v>
       </c>
       <c r="D94">
-        <v>0.1906390201554109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4722421751374364</v>
+      </c>
+      <c r="E94">
+        <v>-0.1520296625959091</v>
+      </c>
+      <c r="F94">
+        <v>-0.4353800166040419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09029198621946136</v>
+        <v>-0.08217468058995434</v>
       </c>
       <c r="C95">
-        <v>0.06568164166723972</v>
+        <v>0.07079108463523182</v>
       </c>
       <c r="D95">
-        <v>-0.0365780732331947</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1550012295556078</v>
+      </c>
+      <c r="E95">
+        <v>0.1313686632673397</v>
+      </c>
+      <c r="F95">
+        <v>0.1749319779351491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1965064696988688</v>
+        <v>-0.1881558330178669</v>
       </c>
       <c r="C98">
-        <v>0.01385182964634649</v>
+        <v>0.04121776962945564</v>
       </c>
       <c r="D98">
-        <v>-0.04728516030662989</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1751433560741904</v>
+      </c>
+      <c r="E98">
+        <v>0.159126478496505</v>
+      </c>
+      <c r="F98">
+        <v>-0.04153512772858003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.007907730230944741</v>
+        <v>-0.006457954916449077</v>
       </c>
       <c r="C101">
-        <v>0.02534165778354524</v>
+        <v>0.02559180637119793</v>
       </c>
       <c r="D101">
-        <v>0.0150882861538029</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02298699534042305</v>
+      </c>
+      <c r="E101">
+        <v>-0.03008468187595962</v>
+      </c>
+      <c r="F101">
+        <v>0.09169403906339578</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.12086487512689</v>
+        <v>-0.1228801602830377</v>
       </c>
       <c r="C102">
-        <v>0.07551329258032184</v>
+        <v>0.1003019924343765</v>
       </c>
       <c r="D102">
-        <v>0.03111320287107977</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05138688004619953</v>
+      </c>
+      <c r="E102">
+        <v>0.008583979608392928</v>
+      </c>
+      <c r="F102">
+        <v>0.0362353703451976</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
